--- a/Example input/AGMIPET2Sim.xlsx
+++ b/Example input/AGMIPET2Sim.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A3F17A-6A89-483D-9172-91C1442A8BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952F1BA9-2366-40E8-B937-9470C69313FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2295" windowWidth="21600" windowHeight="11415" tabRatio="848" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1188" yWindow="2352" windowWidth="17280" windowHeight="9132" tabRatio="848" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="16" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Time" sheetId="4" r:id="rId13"/>
     <sheet name="Variety" sheetId="10" r:id="rId14"/>
     <sheet name="Weather" sheetId="7" r:id="rId15"/>
+    <sheet name="MulchDecomp" sheetId="19" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="Description">Description!$A$1:$O$11</definedName>
@@ -31,6 +32,7 @@
     <definedName name="GridX">GridX_old!$A$1:$B$261</definedName>
     <definedName name="Init">Init!$A$1:$R$21</definedName>
     <definedName name="Irrig">Irrig!$A$1:$C$212</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="15" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="Soil">Soil!$A$1:$AK$213</definedName>
     <definedName name="Time">Time!$A$1:$K$21</definedName>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="278">
   <si>
     <t>Date</t>
   </si>
@@ -617,36 +619,6 @@
     <t>AgMip.nit</t>
   </si>
   <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>NE2</t>
-  </si>
-  <si>
-    <t>NE3</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>I_type</t>
-  </si>
-  <si>
-    <t>M_75</t>
-  </si>
-  <si>
-    <t>M_100</t>
-  </si>
-  <si>
-    <t>S_100</t>
-  </si>
-  <si>
     <t>Mead</t>
   </si>
   <si>
@@ -856,6 +828,66 @@
   <si>
     <t>DailyWind</t>
   </si>
+  <si>
+    <t>Bush2</t>
+  </si>
+  <si>
+    <t>MulchDecomp1</t>
+  </si>
+  <si>
+    <t>LIGN Decomp</t>
+  </si>
+  <si>
+    <t>CELL Decomp</t>
+  </si>
+  <si>
+    <t>CARB Decomp</t>
+  </si>
+  <si>
+    <t>LIGN N MASS</t>
+  </si>
+  <si>
+    <t>CELL N MASS</t>
+  </si>
+  <si>
+    <t>CARB N MASS</t>
+  </si>
+  <si>
+    <t>LIGN MASS</t>
+  </si>
+  <si>
+    <t>CELL MASS</t>
+  </si>
+  <si>
+    <t>CARB MASS</t>
+  </si>
+  <si>
+    <t>alpha_feeding</t>
+  </si>
+  <si>
+    <t>ContactFraction</t>
+  </si>
+  <si>
+    <t>MulchGeo</t>
+  </si>
+  <si>
+    <t>MulchDecomp</t>
+  </si>
+  <si>
+    <t>MulchGeo1</t>
+  </si>
+  <si>
+    <t>date_residue</t>
+  </si>
+  <si>
+    <t>type(t or m)</t>
+  </si>
+  <si>
+    <t>rate (t/ha or  cm)</t>
+  </si>
+  <si>
+    <t>Vertical Layers</t>
+  </si>
 </sst>
 </file>
 
@@ -865,7 +897,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,6 +928,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -939,10 +978,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -976,9 +1016,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D0421304-0559-4E1C-8E1A-33C4C3A20484}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1343,10 +1385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,7 +1408,7 @@
     <col min="15" max="15" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1380,7 +1422,7 @@
         <v>106</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>8</v>
@@ -1413,47 +1455,44 @@
         <v>186</v>
       </c>
       <c r="P1" t="s">
-        <v>188</v>
-      </c>
-      <c r="R1" t="s">
-        <v>194</v>
-      </c>
-      <c r="S1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D2" t="str">
         <f>C2 &amp; ".var"</f>
         <v>Pn_33B51.var</v>
       </c>
       <c r="E2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F2" t="str">
         <f>E2 &amp;"_"&amp; A2 &amp; ".soi"</f>
         <v>MeadIr_run_01.soi</v>
       </c>
       <c r="G2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="J2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K2" t="s">
         <v>187</v>
@@ -1469,50 +1508,47 @@
         <v>91</v>
       </c>
       <c r="O2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
-      </c>
-      <c r="R2" t="s">
-        <v>192</v>
-      </c>
-      <c r="S2">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D21" si="0">C3 &amp; ".var"</f>
         <v>Pn_33G66.var</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F21" si="1">E3 &amp;"_"&amp; A3 &amp; ".soi"</f>
         <v>MeadIr_run_02.soi</v>
       </c>
       <c r="G3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="J3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K3" t="s">
         <v>187</v>
@@ -1528,50 +1564,47 @@
         <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
-      </c>
-      <c r="R3" t="s">
-        <v>192</v>
-      </c>
-      <c r="S3">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>Pn_33H26.var</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
         <v>MeadIr_run_03.soi</v>
       </c>
       <c r="G4" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="J4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K4" t="s">
         <v>187</v>
@@ -1587,50 +1620,47 @@
         <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
-      </c>
-      <c r="R4" t="s">
-        <v>192</v>
-      </c>
-      <c r="S4">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>Pn_33T57.var</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
         <v>MeadIr_run_04.soi</v>
       </c>
       <c r="G5" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H5" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I5" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="J5" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K5" t="s">
         <v>187</v>
@@ -1646,50 +1676,47 @@
         <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
-      </c>
-      <c r="R5" t="s">
-        <v>192</v>
-      </c>
-      <c r="S5">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>DK_61-72.var</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
         <v>MeadIr_run_05.soi</v>
       </c>
       <c r="G6" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H6" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I6" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="J6" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K6" t="s">
         <v>187</v>
@@ -1705,50 +1732,47 @@
         <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
-      </c>
-      <c r="R6" t="s">
-        <v>192</v>
-      </c>
-      <c r="S6">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>DK_62-98.var</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
         <v>MeadIr_run_06.soi</v>
       </c>
       <c r="G7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="J7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K7" t="s">
         <v>187</v>
@@ -1764,50 +1788,47 @@
         <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
-      </c>
-      <c r="R7" t="s">
-        <v>192</v>
-      </c>
-      <c r="S7">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>Pn_33B51.var</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
         <v>MeadRF_run_07.soi</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H8" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I8" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="J8" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K8" t="s">
         <v>187</v>
@@ -1823,50 +1844,47 @@
         <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
-      </c>
-      <c r="R8" t="s">
-        <v>193</v>
-      </c>
-      <c r="S8">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>Pn_33G66.var</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
         <v>MeadRF_run_08.soi</v>
       </c>
       <c r="G9" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H9" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I9" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="J9" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K9" t="s">
         <v>187</v>
@@ -1882,50 +1900,47 @@
         <v>91</v>
       </c>
       <c r="O9" t="s">
+        <v>249</v>
+      </c>
+      <c r="P9" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q9" t="s">
         <v>259</v>
       </c>
-      <c r="P9" t="s">
-        <v>191</v>
-      </c>
-      <c r="R9" t="s">
-        <v>193</v>
-      </c>
-      <c r="S9">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>Pn_33H26.var</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
         <v>MeadRF_run_09.soi</v>
       </c>
       <c r="G10" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H10" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I10" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="J10" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K10" t="s">
         <v>187</v>
@@ -1941,50 +1956,47 @@
         <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
-      </c>
-      <c r="R10" t="s">
-        <v>193</v>
-      </c>
-      <c r="S10">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>Pn_33T57.var</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
         <v>MeadRF_run_10.soi</v>
       </c>
       <c r="G11" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H11" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I11" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="J11" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K11" t="s">
         <v>187</v>
@@ -2000,50 +2012,47 @@
         <v>91</v>
       </c>
       <c r="O11" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
-      </c>
-      <c r="R11" t="s">
-        <v>193</v>
-      </c>
-      <c r="S11">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>168</v>
       </c>
       <c r="B12" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>DK_61-72.var</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
         <v>MeadRF_run_11.soi</v>
       </c>
       <c r="G12" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H12" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I12" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="J12" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K12" t="s">
         <v>187</v>
@@ -2059,50 +2068,47 @@
         <v>91</v>
       </c>
       <c r="O12" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
-      </c>
-      <c r="R12" t="s">
-        <v>193</v>
-      </c>
-      <c r="S12">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>169</v>
       </c>
       <c r="B13" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>DK_62-98.var</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
         <v>MeadRF_run_12.soi</v>
       </c>
       <c r="G13" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H13" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I13" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="J13" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K13" t="s">
         <v>187</v>
@@ -2118,50 +2124,47 @@
         <v>91</v>
       </c>
       <c r="O13" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
-      </c>
-      <c r="R13" t="s">
-        <v>193</v>
-      </c>
-      <c r="S13">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>170</v>
       </c>
       <c r="B14" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C14" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>PIO-1151.var</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
         <v>BushLD_run_13.soi</v>
       </c>
       <c r="G14" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I14" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J14" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K14" t="s">
         <v>187</v>
@@ -2179,49 +2182,45 @@
       <c r="O14" t="s">
         <v>178</v>
       </c>
-      <c r="P14" t="str">
-        <f>"001"</f>
-        <v>001</v>
-      </c>
-      <c r="R14" t="s">
-        <v>195</v>
-      </c>
-      <c r="S14">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P14" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>171</v>
       </c>
       <c r="B15" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>PIO-1151.var</v>
       </c>
       <c r="E15" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
         <v>BushLD_run_14.soi</v>
       </c>
       <c r="G15" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H15" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I15" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J15" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K15" t="s">
         <v>187</v>
@@ -2239,49 +2238,45 @@
       <c r="O15" t="s">
         <v>179</v>
       </c>
-      <c r="P15" t="str">
-        <f t="shared" ref="P15:P21" si="3">"001"</f>
-        <v>001</v>
-      </c>
-      <c r="R15" t="s">
-        <v>195</v>
-      </c>
-      <c r="S15">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P15" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>172</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>PIO-1151.var</v>
       </c>
       <c r="E16" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
         <v>BushLD_run_15.soi</v>
       </c>
       <c r="G16" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H16" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I16" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J16" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K16" t="s">
         <v>187</v>
@@ -2299,49 +2294,45 @@
       <c r="O16" t="s">
         <v>180</v>
       </c>
-      <c r="P16" t="str">
-        <f t="shared" si="3"/>
-        <v>001</v>
-      </c>
-      <c r="R16" t="s">
-        <v>196</v>
-      </c>
-      <c r="S16">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P16" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>173</v>
       </c>
       <c r="B17" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>PIO-1151.var</v>
       </c>
       <c r="E17" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
         <v>BushLD_run_16.soi</v>
       </c>
       <c r="G17" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H17" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I17" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J17" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s">
         <v>187</v>
@@ -2359,49 +2350,45 @@
       <c r="O17" t="s">
         <v>181</v>
       </c>
-      <c r="P17" t="str">
-        <f t="shared" si="3"/>
-        <v>001</v>
-      </c>
-      <c r="R17" t="s">
-        <v>196</v>
-      </c>
-      <c r="S17">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P17" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>174</v>
       </c>
       <c r="B18" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>PIO-1151.var</v>
       </c>
       <c r="E18" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
         <v>BushLD_run_17.soi</v>
       </c>
       <c r="G18" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H18" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I18" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J18" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s">
         <v>187</v>
@@ -2419,49 +2406,45 @@
       <c r="O18" t="s">
         <v>182</v>
       </c>
-      <c r="P18" t="str">
-        <f t="shared" si="3"/>
-        <v>001</v>
-      </c>
-      <c r="R18" t="s">
-        <v>197</v>
-      </c>
-      <c r="S18">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>PIO-1151.var</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
         <v>BushLD_run_18.soi</v>
       </c>
       <c r="G19" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H19" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I19" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s">
         <v>187</v>
@@ -2479,49 +2462,45 @@
       <c r="O19" t="s">
         <v>183</v>
       </c>
-      <c r="P19" t="str">
-        <f t="shared" si="3"/>
-        <v>001</v>
-      </c>
-      <c r="R19" t="s">
-        <v>197</v>
-      </c>
-      <c r="S19">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P19" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>176</v>
       </c>
       <c r="B20" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>PIO-1151.var</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
         <v>BushLD_run_19.soi</v>
       </c>
       <c r="G20" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H20" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s">
         <v>187</v>
@@ -2539,49 +2518,45 @@
       <c r="O20" t="s">
         <v>184</v>
       </c>
-      <c r="P20" t="str">
-        <f t="shared" si="3"/>
-        <v>001</v>
-      </c>
-      <c r="R20" t="s">
-        <v>197</v>
-      </c>
-      <c r="S20">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P20" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>177</v>
       </c>
       <c r="B21" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C21" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>PIO-1151.var</v>
       </c>
       <c r="E21" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
         <v>BushLD_run_20.soi</v>
       </c>
       <c r="G21" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H21" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s">
         <v>187</v>
@@ -2599,15 +2574,11 @@
       <c r="O21" t="s">
         <v>185</v>
       </c>
-      <c r="P21" t="str">
-        <f t="shared" si="3"/>
-        <v>001</v>
-      </c>
-      <c r="R21" t="s">
-        <v>197</v>
-      </c>
-      <c r="S21">
-        <v>2016</v>
+      <c r="P21" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2621,8 +2592,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2642,7 +2613,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C1" t="s">
         <v>114</v>
@@ -2666,7 +2637,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="K1" t="s">
         <v>117</v>
@@ -2690,7 +2661,7 @@
         <v>123</v>
       </c>
       <c r="R1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -2698,7 +2669,7 @@
         <v>158</v>
       </c>
       <c r="B2">
-        <v>58000</v>
+        <v>78000</v>
       </c>
       <c r="C2">
         <v>41.164999999999999</v>
@@ -2754,7 +2725,7 @@
         <v>159</v>
       </c>
       <c r="B3">
-        <v>54000</v>
+        <v>76000</v>
       </c>
       <c r="C3">
         <v>41.164999999999999</v>
@@ -2810,7 +2781,7 @@
         <v>160</v>
       </c>
       <c r="B4">
-        <v>56000</v>
+        <v>77600</v>
       </c>
       <c r="C4">
         <v>41.164999999999999</v>
@@ -2866,7 +2837,7 @@
         <v>161</v>
       </c>
       <c r="B5">
-        <v>61000</v>
+        <v>76500</v>
       </c>
       <c r="C5">
         <v>41.164999999999999</v>
@@ -2922,7 +2893,7 @@
         <v>162</v>
       </c>
       <c r="B6">
-        <v>50000</v>
+        <v>81100</v>
       </c>
       <c r="C6">
         <v>41.164999999999999</v>
@@ -2978,7 +2949,7 @@
         <v>163</v>
       </c>
       <c r="B7">
-        <v>58000</v>
+        <v>78900</v>
       </c>
       <c r="C7">
         <v>41.164999999999999</v>
@@ -3825,7 +3796,7 @@
   <dimension ref="A1:AK213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3838,13 +3809,13 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
         <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D1" t="s">
         <v>138</v>
@@ -3856,7 +3827,7 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="H1" t="s">
         <v>130</v>
@@ -3946,18 +3917,18 @@
         <v>65</v>
       </c>
       <c r="AK1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D2">
         <v>1.0664E-2</v>
@@ -3987,7 +3958,7 @@
         <v>1.19</v>
       </c>
       <c r="M2">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="N2">
         <v>0.18</v>
@@ -4064,13 +4035,13 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D3">
         <v>1.0664E-2</v>
@@ -4177,13 +4148,13 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B4">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D4">
         <v>8.9440000000000006E-3</v>
@@ -4290,13 +4261,13 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B5">
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D5">
         <v>6.5359999999999993E-3</v>
@@ -4403,13 +4374,13 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B6">
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D6">
         <v>6.5359999999999993E-3</v>
@@ -4516,13 +4487,13 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B7">
         <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D7">
         <v>5.1600000000000005E-3</v>
@@ -4629,13 +4600,13 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B8">
         <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D8">
         <v>5.1600000000000005E-3</v>
@@ -4742,13 +4713,13 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B9">
         <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D9">
         <v>2.7520000000000001E-3</v>
@@ -4855,13 +4826,13 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B10">
         <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D10">
         <v>2.7520000000000001E-3</v>
@@ -4968,13 +4939,13 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B11">
         <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D11">
         <v>2.7520000000000001E-3</v>
@@ -5081,13 +5052,13 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B12">
         <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D12">
         <v>2.7520000000000001E-3</v>
@@ -5194,13 +5165,13 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B13">
         <v>220</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D13">
         <v>2.7520000000000001E-3</v>
@@ -5307,13 +5278,13 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B14">
         <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D14">
         <v>2.7520000000000001E-3</v>
@@ -5420,13 +5391,13 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D15">
         <v>1.0664E-2</v>
@@ -5533,13 +5504,13 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B16">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D16">
         <v>1.0664E-2</v>
@@ -5646,13 +5617,13 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B17">
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D17">
         <v>8.9440000000000006E-3</v>
@@ -5759,13 +5730,13 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B18">
         <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D18">
         <v>6.5359999999999993E-3</v>
@@ -5872,13 +5843,13 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B19">
         <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D19">
         <v>6.5359999999999993E-3</v>
@@ -5985,13 +5956,13 @@
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B20">
         <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D20">
         <v>5.1600000000000005E-3</v>
@@ -6098,13 +6069,13 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B21">
         <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D21">
         <v>5.1600000000000005E-3</v>
@@ -6211,13 +6182,13 @@
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B22">
         <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D22">
         <v>2.7520000000000001E-3</v>
@@ -6324,13 +6295,13 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B23">
         <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D23">
         <v>2.7520000000000001E-3</v>
@@ -6437,13 +6408,13 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B24">
         <v>180</v>
       </c>
       <c r="C24" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D24">
         <v>2.7520000000000001E-3</v>
@@ -6550,13 +6521,13 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B25">
         <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D25">
         <v>2.7520000000000001E-3</v>
@@ -6663,13 +6634,13 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B26">
         <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D26">
         <v>2.7520000000000001E-3</v>
@@ -6776,13 +6747,13 @@
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B27">
         <v>240</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D27">
         <v>2.7520000000000001E-3</v>
@@ -6889,13 +6860,13 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D28">
         <v>1.0664E-2</v>
@@ -7002,13 +6973,13 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B29">
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D29">
         <v>1.0664E-2</v>
@@ -7115,13 +7086,13 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B30">
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D30">
         <v>8.9440000000000006E-3</v>
@@ -7228,13 +7199,13 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B31">
         <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D31">
         <v>6.5359999999999993E-3</v>
@@ -7341,13 +7312,13 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B32">
         <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D32">
         <v>6.5359999999999993E-3</v>
@@ -7454,13 +7425,13 @@
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B33">
         <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D33">
         <v>5.1600000000000005E-3</v>
@@ -7567,13 +7538,13 @@
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B34">
         <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D34">
         <v>5.1600000000000005E-3</v>
@@ -7680,13 +7651,13 @@
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B35">
         <v>140</v>
       </c>
       <c r="C35" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D35">
         <v>2.7520000000000001E-3</v>
@@ -7793,13 +7764,13 @@
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B36">
         <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D36">
         <v>2.7520000000000001E-3</v>
@@ -7906,13 +7877,13 @@
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B37">
         <v>180</v>
       </c>
       <c r="C37" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D37">
         <v>2.7520000000000001E-3</v>
@@ -8019,13 +7990,13 @@
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B38">
         <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D38">
         <v>2.7520000000000001E-3</v>
@@ -8132,13 +8103,13 @@
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B39">
         <v>220</v>
       </c>
       <c r="C39" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D39">
         <v>2.7520000000000001E-3</v>
@@ -8245,13 +8216,13 @@
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B40">
         <v>240</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D40">
         <v>2.7520000000000001E-3</v>
@@ -8358,13 +8329,13 @@
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B41">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D41">
         <v>1.0664E-2</v>
@@ -8471,13 +8442,13 @@
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B42">
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D42">
         <v>1.0664E-2</v>
@@ -8584,13 +8555,13 @@
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B43">
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D43">
         <v>8.9440000000000006E-3</v>
@@ -8697,13 +8668,13 @@
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B44">
         <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D44">
         <v>6.5359999999999993E-3</v>
@@ -8810,13 +8781,13 @@
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B45">
         <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D45">
         <v>6.5359999999999993E-3</v>
@@ -8923,13 +8894,13 @@
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B46">
         <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D46">
         <v>5.1600000000000005E-3</v>
@@ -9036,13 +9007,13 @@
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B47">
         <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D47">
         <v>5.1600000000000005E-3</v>
@@ -9149,13 +9120,13 @@
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B48">
         <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D48">
         <v>2.7520000000000001E-3</v>
@@ -9262,13 +9233,13 @@
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B49">
         <v>160</v>
       </c>
       <c r="C49" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D49">
         <v>2.7520000000000001E-3</v>
@@ -9375,13 +9346,13 @@
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B50">
         <v>180</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D50">
         <v>2.7520000000000001E-3</v>
@@ -9488,13 +9459,13 @@
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B51">
         <v>200</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D51">
         <v>2.7520000000000001E-3</v>
@@ -9601,13 +9572,13 @@
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B52">
         <v>220</v>
       </c>
       <c r="C52" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D52">
         <v>2.7520000000000001E-3</v>
@@ -9714,13 +9685,13 @@
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B53">
         <v>240</v>
       </c>
       <c r="C53" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D53">
         <v>2.7520000000000001E-3</v>
@@ -9827,13 +9798,13 @@
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B54">
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D54">
         <v>1.0664E-2</v>
@@ -9940,13 +9911,13 @@
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B55">
         <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D55">
         <v>1.0664E-2</v>
@@ -10053,13 +10024,13 @@
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B56">
         <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D56">
         <v>8.9440000000000006E-3</v>
@@ -10166,13 +10137,13 @@
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B57">
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D57">
         <v>6.5359999999999993E-3</v>
@@ -10279,13 +10250,13 @@
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B58">
         <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D58">
         <v>6.5359999999999993E-3</v>
@@ -10392,13 +10363,13 @@
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B59">
         <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D59">
         <v>5.1600000000000005E-3</v>
@@ -10505,13 +10476,13 @@
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B60">
         <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D60">
         <v>5.1600000000000005E-3</v>
@@ -10618,13 +10589,13 @@
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B61">
         <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D61">
         <v>2.7520000000000001E-3</v>
@@ -10731,13 +10702,13 @@
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B62">
         <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D62">
         <v>2.7520000000000001E-3</v>
@@ -10844,13 +10815,13 @@
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B63">
         <v>180</v>
       </c>
       <c r="C63" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D63">
         <v>2.7520000000000001E-3</v>
@@ -10957,13 +10928,13 @@
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B64">
         <v>200</v>
       </c>
       <c r="C64" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D64">
         <v>2.7520000000000001E-3</v>
@@ -11070,13 +11041,13 @@
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B65">
         <v>220</v>
       </c>
       <c r="C65" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D65">
         <v>2.7520000000000001E-3</v>
@@ -11183,13 +11154,13 @@
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B66">
         <v>240</v>
       </c>
       <c r="C66" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D66">
         <v>2.7520000000000001E-3</v>
@@ -11296,13 +11267,13 @@
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B67">
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D67">
         <v>1.0664E-2</v>
@@ -11409,13 +11380,13 @@
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B68">
         <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D68">
         <v>1.0664E-2</v>
@@ -11522,13 +11493,13 @@
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B69">
         <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D69">
         <v>8.9440000000000006E-3</v>
@@ -11635,13 +11606,13 @@
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B70">
         <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D70">
         <v>6.5359999999999993E-3</v>
@@ -11748,13 +11719,13 @@
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B71">
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D71">
         <v>6.5359999999999993E-3</v>
@@ -11861,13 +11832,13 @@
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B72">
         <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D72">
         <v>5.1600000000000005E-3</v>
@@ -11974,13 +11945,13 @@
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B73">
         <v>120</v>
       </c>
       <c r="C73" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D73">
         <v>5.1600000000000005E-3</v>
@@ -12087,13 +12058,13 @@
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B74">
         <v>140</v>
       </c>
       <c r="C74" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D74">
         <v>2.7520000000000001E-3</v>
@@ -12200,13 +12171,13 @@
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B75">
         <v>160</v>
       </c>
       <c r="C75" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D75">
         <v>2.7520000000000001E-3</v>
@@ -12313,13 +12284,13 @@
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B76">
         <v>180</v>
       </c>
       <c r="C76" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D76">
         <v>2.7520000000000001E-3</v>
@@ -12426,13 +12397,13 @@
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B77">
         <v>200</v>
       </c>
       <c r="C77" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D77">
         <v>2.7520000000000001E-3</v>
@@ -12539,13 +12510,13 @@
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B78">
         <v>220</v>
       </c>
       <c r="C78" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D78">
         <v>2.7520000000000001E-3</v>
@@ -12652,13 +12623,13 @@
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B79">
         <v>240</v>
       </c>
       <c r="C79" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D79">
         <v>2.7520000000000001E-3</v>
@@ -12765,13 +12736,13 @@
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B80">
         <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D80">
         <v>1.0664E-2</v>
@@ -12878,13 +12849,13 @@
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B81">
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D81">
         <v>1.0664E-2</v>
@@ -12991,13 +12962,13 @@
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B82">
         <v>40</v>
       </c>
       <c r="C82" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D82">
         <v>8.9440000000000006E-3</v>
@@ -13104,13 +13075,13 @@
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B83">
         <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D83">
         <v>6.5359999999999993E-3</v>
@@ -13217,13 +13188,13 @@
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B84">
         <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D84">
         <v>6.5359999999999993E-3</v>
@@ -13330,13 +13301,13 @@
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B85">
         <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D85">
         <v>5.1600000000000005E-3</v>
@@ -13443,13 +13414,13 @@
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B86">
         <v>120</v>
       </c>
       <c r="C86" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D86">
         <v>5.1600000000000005E-3</v>
@@ -13556,13 +13527,13 @@
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B87">
         <v>140</v>
       </c>
       <c r="C87" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D87">
         <v>2.7520000000000001E-3</v>
@@ -13669,13 +13640,13 @@
     </row>
     <row r="88" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B88">
         <v>160</v>
       </c>
       <c r="C88" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D88">
         <v>2.7520000000000001E-3</v>
@@ -13782,13 +13753,13 @@
     </row>
     <row r="89" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B89">
         <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D89">
         <v>2.7520000000000001E-3</v>
@@ -13895,13 +13866,13 @@
     </row>
     <row r="90" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B90">
         <v>200</v>
       </c>
       <c r="C90" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D90">
         <v>2.7520000000000001E-3</v>
@@ -14008,13 +13979,13 @@
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B91">
         <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D91">
         <v>2.7520000000000001E-3</v>
@@ -14121,13 +14092,13 @@
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B92">
         <v>240</v>
       </c>
       <c r="C92" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D92">
         <v>2.7520000000000001E-3</v>
@@ -14234,13 +14205,13 @@
     </row>
     <row r="93" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B93">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D93">
         <v>1.0664E-2</v>
@@ -14347,13 +14318,13 @@
     </row>
     <row r="94" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B94">
         <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D94">
         <v>1.0664E-2</v>
@@ -14460,13 +14431,13 @@
     </row>
     <row r="95" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B95">
         <v>40</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D95">
         <v>8.9440000000000006E-3</v>
@@ -14573,13 +14544,13 @@
     </row>
     <row r="96" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B96">
         <v>60</v>
       </c>
       <c r="C96" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D96">
         <v>6.5359999999999993E-3</v>
@@ -14686,13 +14657,13 @@
     </row>
     <row r="97" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B97">
         <v>80</v>
       </c>
       <c r="C97" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D97">
         <v>6.5359999999999993E-3</v>
@@ -14799,13 +14770,13 @@
     </row>
     <row r="98" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B98">
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D98">
         <v>5.1600000000000005E-3</v>
@@ -14912,13 +14883,13 @@
     </row>
     <row r="99" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B99">
         <v>120</v>
       </c>
       <c r="C99" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D99">
         <v>5.1600000000000005E-3</v>
@@ -15025,13 +14996,13 @@
     </row>
     <row r="100" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B100">
         <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D100">
         <v>2.7520000000000001E-3</v>
@@ -15138,13 +15109,13 @@
     </row>
     <row r="101" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B101">
         <v>160</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D101">
         <v>2.7520000000000001E-3</v>
@@ -15251,13 +15222,13 @@
     </row>
     <row r="102" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B102">
         <v>180</v>
       </c>
       <c r="C102" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D102">
         <v>2.7520000000000001E-3</v>
@@ -15364,13 +15335,13 @@
     </row>
     <row r="103" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B103">
         <v>200</v>
       </c>
       <c r="C103" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D103">
         <v>2.7520000000000001E-3</v>
@@ -15477,13 +15448,13 @@
     </row>
     <row r="104" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B104">
         <v>220</v>
       </c>
       <c r="C104" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D104">
         <v>2.7520000000000001E-3</v>
@@ -15590,13 +15561,13 @@
     </row>
     <row r="105" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B105">
         <v>240</v>
       </c>
       <c r="C105" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D105">
         <v>2.7520000000000001E-3</v>
@@ -15703,13 +15674,13 @@
     </row>
     <row r="106" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B106">
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D106">
         <v>3.0099999999999998E-2</v>
@@ -15816,13 +15787,13 @@
     </row>
     <row r="107" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B107">
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D107">
         <v>3.0099999999999998E-2</v>
@@ -15929,13 +15900,13 @@
     </row>
     <row r="108" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B108">
         <v>35</v>
       </c>
       <c r="C108" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D108">
         <v>2.7520000000000003E-2</v>
@@ -16042,13 +16013,13 @@
     </row>
     <row r="109" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B109">
         <v>45</v>
       </c>
       <c r="C109" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D109">
         <v>2.4939999999999997E-2</v>
@@ -16155,13 +16126,13 @@
     </row>
     <row r="110" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B110">
         <v>55</v>
       </c>
       <c r="C110" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D110">
         <v>2.4939999999999997E-2</v>
@@ -16268,13 +16239,13 @@
     </row>
     <row r="111" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B111">
         <v>85</v>
       </c>
       <c r="C111" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D111">
         <v>1.8920000000000003E-2</v>
@@ -16381,13 +16352,13 @@
     </row>
     <row r="112" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B112">
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D112">
         <v>1.1180000000000001E-2</v>
@@ -16494,13 +16465,13 @@
     </row>
     <row r="113" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B113">
         <v>150</v>
       </c>
       <c r="C113" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D113">
         <v>5.1600000000000005E-3</v>
@@ -16607,13 +16578,13 @@
     </row>
     <row r="114" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B114">
         <v>200</v>
       </c>
       <c r="C114" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D114">
         <v>1.7200000000000002E-3</v>
@@ -16720,13 +16691,13 @@
     </row>
     <row r="115" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B115">
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D115">
         <v>3.0099999999999998E-2</v>
@@ -16833,13 +16804,13 @@
     </row>
     <row r="116" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B116">
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D116">
         <v>3.0099999999999998E-2</v>
@@ -16946,13 +16917,13 @@
     </row>
     <row r="117" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B117">
         <v>35</v>
       </c>
       <c r="C117" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D117">
         <v>2.7520000000000003E-2</v>
@@ -17059,13 +17030,13 @@
     </row>
     <row r="118" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B118">
         <v>45</v>
       </c>
       <c r="C118" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D118">
         <v>2.4939999999999997E-2</v>
@@ -17172,13 +17143,13 @@
     </row>
     <row r="119" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B119">
         <v>55</v>
       </c>
       <c r="C119" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D119">
         <v>2.4939999999999997E-2</v>
@@ -17285,13 +17256,13 @@
     </row>
     <row r="120" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B120">
         <v>85</v>
       </c>
       <c r="C120" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D120">
         <v>1.8920000000000003E-2</v>
@@ -17398,13 +17369,13 @@
     </row>
     <row r="121" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B121">
         <v>115</v>
       </c>
       <c r="C121" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D121">
         <v>1.1180000000000001E-2</v>
@@ -17511,13 +17482,13 @@
     </row>
     <row r="122" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B122">
         <v>150</v>
       </c>
       <c r="C122" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D122">
         <v>5.1600000000000005E-3</v>
@@ -17624,13 +17595,13 @@
     </row>
     <row r="123" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B123">
         <v>200</v>
       </c>
       <c r="C123" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D123">
         <v>1.7200000000000002E-3</v>
@@ -17737,13 +17708,13 @@
     </row>
     <row r="124" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B124">
         <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D124">
         <v>3.0099999999999998E-2</v>
@@ -17850,13 +17821,13 @@
     </row>
     <row r="125" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B125">
         <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D125">
         <v>3.0099999999999998E-2</v>
@@ -17963,13 +17934,13 @@
     </row>
     <row r="126" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B126">
         <v>35</v>
       </c>
       <c r="C126" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D126">
         <v>2.7520000000000003E-2</v>
@@ -18076,13 +18047,13 @@
     </row>
     <row r="127" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B127">
         <v>45</v>
       </c>
       <c r="C127" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D127">
         <v>2.4939999999999997E-2</v>
@@ -18189,13 +18160,13 @@
     </row>
     <row r="128" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B128">
         <v>55</v>
       </c>
       <c r="C128" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D128">
         <v>2.4939999999999997E-2</v>
@@ -18302,13 +18273,13 @@
     </row>
     <row r="129" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B129">
         <v>85</v>
       </c>
       <c r="C129" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D129">
         <v>1.8920000000000003E-2</v>
@@ -18415,13 +18386,13 @@
     </row>
     <row r="130" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B130">
         <v>115</v>
       </c>
       <c r="C130" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D130">
         <v>1.1180000000000001E-2</v>
@@ -18528,13 +18499,13 @@
     </row>
     <row r="131" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B131">
         <v>150</v>
       </c>
       <c r="C131" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D131">
         <v>5.1600000000000005E-3</v>
@@ -18641,13 +18612,13 @@
     </row>
     <row r="132" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B132">
         <v>200</v>
       </c>
       <c r="C132" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D132">
         <v>1.7200000000000002E-3</v>
@@ -18754,13 +18725,13 @@
     </row>
     <row r="133" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D133">
         <v>3.0099999999999998E-2</v>
@@ -18867,13 +18838,13 @@
     </row>
     <row r="134" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B134">
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D134">
         <v>3.0099999999999998E-2</v>
@@ -18980,13 +18951,13 @@
     </row>
     <row r="135" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B135">
         <v>35</v>
       </c>
       <c r="C135" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D135">
         <v>2.7520000000000003E-2</v>
@@ -19093,13 +19064,13 @@
     </row>
     <row r="136" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B136">
         <v>45</v>
       </c>
       <c r="C136" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D136">
         <v>2.4939999999999997E-2</v>
@@ -19206,13 +19177,13 @@
     </row>
     <row r="137" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B137">
         <v>55</v>
       </c>
       <c r="C137" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D137">
         <v>2.4939999999999997E-2</v>
@@ -19319,13 +19290,13 @@
     </row>
     <row r="138" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B138">
         <v>85</v>
       </c>
       <c r="C138" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D138">
         <v>1.8920000000000003E-2</v>
@@ -19432,13 +19403,13 @@
     </row>
     <row r="139" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B139">
         <v>115</v>
       </c>
       <c r="C139" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D139">
         <v>1.1180000000000001E-2</v>
@@ -19545,13 +19516,13 @@
     </row>
     <row r="140" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B140">
         <v>150</v>
       </c>
       <c r="C140" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D140">
         <v>5.1600000000000005E-3</v>
@@ -19658,13 +19629,13 @@
     </row>
     <row r="141" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B141">
         <v>200</v>
       </c>
       <c r="C141" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D141">
         <v>1.7200000000000002E-3</v>
@@ -19771,13 +19742,13 @@
     </row>
     <row r="142" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B142">
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D142">
         <v>3.0099999999999998E-2</v>
@@ -19884,13 +19855,13 @@
     </row>
     <row r="143" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B143">
         <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D143">
         <v>3.0099999999999998E-2</v>
@@ -19997,13 +19968,13 @@
     </row>
     <row r="144" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B144">
         <v>35</v>
       </c>
       <c r="C144" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D144">
         <v>2.7520000000000003E-2</v>
@@ -20110,13 +20081,13 @@
     </row>
     <row r="145" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B145">
         <v>45</v>
       </c>
       <c r="C145" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D145">
         <v>2.4939999999999997E-2</v>
@@ -20223,13 +20194,13 @@
     </row>
     <row r="146" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B146">
         <v>55</v>
       </c>
       <c r="C146" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D146">
         <v>2.4939999999999997E-2</v>
@@ -20336,13 +20307,13 @@
     </row>
     <row r="147" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B147">
         <v>85</v>
       </c>
       <c r="C147" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D147">
         <v>1.8920000000000003E-2</v>
@@ -20449,13 +20420,13 @@
     </row>
     <row r="148" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B148">
         <v>115</v>
       </c>
       <c r="C148" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D148">
         <v>1.1180000000000001E-2</v>
@@ -20562,13 +20533,13 @@
     </row>
     <row r="149" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B149">
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D149">
         <v>5.1600000000000005E-3</v>
@@ -20675,13 +20646,13 @@
     </row>
     <row r="150" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B150">
         <v>200</v>
       </c>
       <c r="C150" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D150">
         <v>1.7200000000000002E-3</v>
@@ -20788,13 +20759,13 @@
     </row>
     <row r="151" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B151">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D151">
         <v>3.0099999999999998E-2</v>
@@ -20901,13 +20872,13 @@
     </row>
     <row r="152" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B152">
         <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D152">
         <v>3.0099999999999998E-2</v>
@@ -21014,13 +20985,13 @@
     </row>
     <row r="153" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B153">
         <v>35</v>
       </c>
       <c r="C153" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D153">
         <v>2.7520000000000003E-2</v>
@@ -21127,13 +21098,13 @@
     </row>
     <row r="154" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B154">
         <v>45</v>
       </c>
       <c r="C154" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D154">
         <v>2.4939999999999997E-2</v>
@@ -21240,13 +21211,13 @@
     </row>
     <row r="155" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B155">
         <v>55</v>
       </c>
       <c r="C155" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D155">
         <v>2.4939999999999997E-2</v>
@@ -21353,13 +21324,13 @@
     </row>
     <row r="156" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B156">
         <v>85</v>
       </c>
       <c r="C156" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D156">
         <v>1.8920000000000003E-2</v>
@@ -21466,13 +21437,13 @@
     </row>
     <row r="157" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B157">
         <v>115</v>
       </c>
       <c r="C157" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D157">
         <v>1.1180000000000001E-2</v>
@@ -21579,13 +21550,13 @@
     </row>
     <row r="158" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B158">
         <v>150</v>
       </c>
       <c r="C158" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D158">
         <v>5.1600000000000005E-3</v>
@@ -21692,13 +21663,13 @@
     </row>
     <row r="159" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B159">
         <v>200</v>
       </c>
       <c r="C159" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D159">
         <v>1.7200000000000002E-3</v>
@@ -21805,13 +21776,13 @@
     </row>
     <row r="160" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B160">
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D160">
         <v>3.0099999999999998E-2</v>
@@ -21918,13 +21889,13 @@
     </row>
     <row r="161" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B161">
         <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D161">
         <v>3.0099999999999998E-2</v>
@@ -22031,13 +22002,13 @@
     </row>
     <row r="162" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B162">
         <v>35</v>
       </c>
       <c r="C162" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D162">
         <v>2.7520000000000003E-2</v>
@@ -22144,13 +22115,13 @@
     </row>
     <row r="163" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B163">
         <v>45</v>
       </c>
       <c r="C163" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D163">
         <v>2.4939999999999997E-2</v>
@@ -22257,13 +22228,13 @@
     </row>
     <row r="164" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B164">
         <v>55</v>
       </c>
       <c r="C164" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D164">
         <v>2.4939999999999997E-2</v>
@@ -22370,13 +22341,13 @@
     </row>
     <row r="165" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B165">
         <v>85</v>
       </c>
       <c r="C165" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D165">
         <v>1.8920000000000003E-2</v>
@@ -22483,13 +22454,13 @@
     </row>
     <row r="166" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B166">
         <v>115</v>
       </c>
       <c r="C166" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D166">
         <v>1.1180000000000001E-2</v>
@@ -22596,13 +22567,13 @@
     </row>
     <row r="167" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B167">
         <v>150</v>
       </c>
       <c r="C167" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D167">
         <v>5.1600000000000005E-3</v>
@@ -22709,13 +22680,13 @@
     </row>
     <row r="168" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B168">
         <v>200</v>
       </c>
       <c r="C168" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D168">
         <v>1.7200000000000002E-3</v>
@@ -22822,13 +22793,13 @@
     </row>
     <row r="169" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B169">
         <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D169">
         <v>3.0099999999999998E-2</v>
@@ -22935,13 +22906,13 @@
     </row>
     <row r="170" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B170">
         <v>15</v>
       </c>
       <c r="C170" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D170">
         <v>3.0099999999999998E-2</v>
@@ -23048,13 +23019,13 @@
     </row>
     <row r="171" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B171">
         <v>35</v>
       </c>
       <c r="C171" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D171">
         <v>2.7520000000000003E-2</v>
@@ -23161,13 +23132,13 @@
     </row>
     <row r="172" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B172">
         <v>45</v>
       </c>
       <c r="C172" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D172">
         <v>2.4939999999999997E-2</v>
@@ -23274,13 +23245,13 @@
     </row>
     <row r="173" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B173">
         <v>55</v>
       </c>
       <c r="C173" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D173">
         <v>2.4939999999999997E-2</v>
@@ -23387,13 +23358,13 @@
     </row>
     <row r="174" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B174">
         <v>85</v>
       </c>
       <c r="C174" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D174">
         <v>1.8920000000000003E-2</v>
@@ -23500,13 +23471,13 @@
     </row>
     <row r="175" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B175">
         <v>115</v>
       </c>
       <c r="C175" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D175">
         <v>1.1180000000000001E-2</v>
@@ -23613,13 +23584,13 @@
     </row>
     <row r="176" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B176">
         <v>150</v>
       </c>
       <c r="C176" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D176">
         <v>5.1600000000000005E-3</v>
@@ -23726,13 +23697,13 @@
     </row>
     <row r="177" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B177">
         <v>200</v>
       </c>
       <c r="C177" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D177">
         <v>1.7200000000000002E-3</v>
@@ -23839,13 +23810,13 @@
     </row>
     <row r="178" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B178">
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D178">
         <v>3.0099999999999998E-2</v>
@@ -23952,13 +23923,13 @@
     </row>
     <row r="179" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B179">
         <v>15</v>
       </c>
       <c r="C179" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D179">
         <v>3.0099999999999998E-2</v>
@@ -24065,13 +24036,13 @@
     </row>
     <row r="180" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B180">
         <v>35</v>
       </c>
       <c r="C180" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D180">
         <v>2.7520000000000003E-2</v>
@@ -24178,13 +24149,13 @@
     </row>
     <row r="181" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B181">
         <v>45</v>
       </c>
       <c r="C181" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D181">
         <v>2.4939999999999997E-2</v>
@@ -24291,13 +24262,13 @@
     </row>
     <row r="182" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B182">
         <v>55</v>
       </c>
       <c r="C182" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D182">
         <v>2.4939999999999997E-2</v>
@@ -24404,13 +24375,13 @@
     </row>
     <row r="183" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B183">
         <v>85</v>
       </c>
       <c r="C183" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D183">
         <v>1.8920000000000003E-2</v>
@@ -24517,13 +24488,13 @@
     </row>
     <row r="184" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B184">
         <v>115</v>
       </c>
       <c r="C184" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D184">
         <v>1.1180000000000001E-2</v>
@@ -24630,13 +24601,13 @@
     </row>
     <row r="185" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B185">
         <v>150</v>
       </c>
       <c r="C185" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D185">
         <v>5.1600000000000005E-3</v>
@@ -24743,13 +24714,13 @@
     </row>
     <row r="186" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B186">
         <v>200</v>
       </c>
       <c r="C186" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D186">
         <v>1.7200000000000002E-3</v>
@@ -24856,13 +24827,13 @@
     </row>
     <row r="187" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B187">
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D187">
         <v>3.0099999999999998E-2</v>
@@ -24969,13 +24940,13 @@
     </row>
     <row r="188" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B188">
         <v>15</v>
       </c>
       <c r="C188" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D188">
         <v>3.0099999999999998E-2</v>
@@ -25082,13 +25053,13 @@
     </row>
     <row r="189" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B189">
         <v>35</v>
       </c>
       <c r="C189" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D189">
         <v>2.7520000000000003E-2</v>
@@ -25195,13 +25166,13 @@
     </row>
     <row r="190" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B190">
         <v>45</v>
       </c>
       <c r="C190" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D190">
         <v>2.4939999999999997E-2</v>
@@ -25308,13 +25279,13 @@
     </row>
     <row r="191" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B191">
         <v>55</v>
       </c>
       <c r="C191" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D191">
         <v>2.4939999999999997E-2</v>
@@ -25421,13 +25392,13 @@
     </row>
     <row r="192" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B192">
         <v>85</v>
       </c>
       <c r="C192" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D192">
         <v>1.8920000000000003E-2</v>
@@ -25534,13 +25505,13 @@
     </row>
     <row r="193" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B193">
         <v>115</v>
       </c>
       <c r="C193" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D193">
         <v>1.1180000000000001E-2</v>
@@ -25647,13 +25618,13 @@
     </row>
     <row r="194" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B194">
         <v>150</v>
       </c>
       <c r="C194" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D194">
         <v>5.1600000000000005E-3</v>
@@ -25760,13 +25731,13 @@
     </row>
     <row r="195" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B195">
         <v>200</v>
       </c>
       <c r="C195" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D195">
         <v>1.7200000000000002E-3</v>
@@ -25873,13 +25844,13 @@
     </row>
     <row r="196" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B196">
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D196">
         <v>3.0099999999999998E-2</v>
@@ -25986,13 +25957,13 @@
     </row>
     <row r="197" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B197">
         <v>15</v>
       </c>
       <c r="C197" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D197">
         <v>3.0099999999999998E-2</v>
@@ -26099,13 +26070,13 @@
     </row>
     <row r="198" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B198">
         <v>35</v>
       </c>
       <c r="C198" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D198">
         <v>2.7520000000000003E-2</v>
@@ -26212,13 +26183,13 @@
     </row>
     <row r="199" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B199">
         <v>45</v>
       </c>
       <c r="C199" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D199">
         <v>2.4939999999999997E-2</v>
@@ -26325,13 +26296,13 @@
     </row>
     <row r="200" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B200">
         <v>55</v>
       </c>
       <c r="C200" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D200">
         <v>2.4939999999999997E-2</v>
@@ -26438,13 +26409,13 @@
     </row>
     <row r="201" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B201">
         <v>85</v>
       </c>
       <c r="C201" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D201">
         <v>1.8920000000000003E-2</v>
@@ -26551,13 +26522,13 @@
     </row>
     <row r="202" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>115</v>
       </c>
       <c r="C202" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D202">
         <v>1.1180000000000001E-2</v>
@@ -26664,13 +26635,13 @@
     </row>
     <row r="203" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B203">
         <v>150</v>
       </c>
       <c r="C203" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D203">
         <v>5.1600000000000005E-3</v>
@@ -26777,13 +26748,13 @@
     </row>
     <row r="204" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B204">
         <v>200</v>
       </c>
       <c r="C204" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D204">
         <v>1.7200000000000002E-3</v>
@@ -26890,13 +26861,13 @@
     </row>
     <row r="205" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B205">
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D205">
         <v>3.0099999999999998E-2</v>
@@ -27003,13 +26974,13 @@
     </row>
     <row r="206" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B206">
         <v>15</v>
       </c>
       <c r="C206" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D206">
         <v>3.0099999999999998E-2</v>
@@ -27116,13 +27087,13 @@
     </row>
     <row r="207" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B207">
         <v>35</v>
       </c>
       <c r="C207" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D207">
         <v>2.7520000000000003E-2</v>
@@ -27229,13 +27200,13 @@
     </row>
     <row r="208" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B208">
         <v>45</v>
       </c>
       <c r="C208" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D208">
         <v>2.4939999999999997E-2</v>
@@ -27342,13 +27313,13 @@
     </row>
     <row r="209" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B209">
         <v>55</v>
       </c>
       <c r="C209" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D209">
         <v>2.4939999999999997E-2</v>
@@ -27455,13 +27426,13 @@
     </row>
     <row r="210" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B210">
         <v>85</v>
       </c>
       <c r="C210" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D210">
         <v>1.8920000000000003E-2</v>
@@ -27568,13 +27539,13 @@
     </row>
     <row r="211" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B211">
         <v>115</v>
       </c>
       <c r="C211" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D211">
         <v>1.1180000000000001E-2</v>
@@ -27681,13 +27652,13 @@
     </row>
     <row r="212" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B212">
         <v>150</v>
       </c>
       <c r="C212" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D212">
         <v>5.1600000000000005E-3</v>
@@ -27794,13 +27765,13 @@
     </row>
     <row r="213" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B213">
         <v>200</v>
       </c>
       <c r="C213" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D213">
         <v>1.7200000000000002E-3</v>
@@ -27971,7 +27942,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28728,14 +28699,14 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.5546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
@@ -28745,7 +28716,7 @@
     <col min="17" max="22" width="9.109375" style="12"/>
     <col min="25" max="25" width="11.109375" customWidth="1"/>
     <col min="26" max="26" width="10.109375" customWidth="1"/>
-    <col min="27" max="27" width="10.44140625" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
@@ -28842,10 +28813,10 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -28860,7 +28831,7 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>110</v>
@@ -28932,10 +28903,10 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -28950,7 +28921,7 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>110</v>
@@ -29022,10 +28993,10 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -29040,7 +29011,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>110</v>
@@ -29112,10 +29083,10 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -29202,10 +29173,10 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -29220,7 +29191,7 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>110</v>
@@ -29292,10 +29263,10 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -29310,7 +29281,7 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>110</v>
@@ -29382,10 +29353,10 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -29400,7 +29371,7 @@
         <v>3</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>110</v>
@@ -29472,10 +29443,10 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -29490,7 +29461,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>110</v>
@@ -29599,10 +29570,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
         <v>93</v>
@@ -29613,10 +29584,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
         <v>93</v>
@@ -29631,6 +29602,112 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357CE90D-FEEF-4903-B17C-819B9216743C}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="H2" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="I2" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="J2" s="21">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="K2" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="L2" s="21">
+        <v>2.2800000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -29717,7 +29794,7 @@
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29745,8 +29822,8 @@
       <c r="E1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>267</v>
+      <c r="F1" s="15" t="s">
+        <v>257</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>16</v>
@@ -29757,7 +29834,7 @@
       <c r="I1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="15" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="6" t="s">
@@ -29802,10 +29879,10 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C2" s="12">
         <v>41.18</v>
@@ -29873,10 +29950,10 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C3" s="20">
         <v>35.19</v>
@@ -29944,11 +30021,18 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="L4" s="4"/>
+      <c r="V4">
+        <v>600</v>
+      </c>
       <c r="W4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -29967,10 +30051,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29980,7 +30064,7 @@
     <col min="3" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -29991,7 +30075,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E1" t="s">
         <v>134</v>
@@ -29999,8 +30083,20 @@
       <c r="F1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -30020,7 +30116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -30040,7 +30136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -30060,7 +30156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -30080,7 +30176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>159</v>
       </c>
@@ -30100,7 +30196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -30120,7 +30216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -30140,7 +30236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>160</v>
       </c>
@@ -30160,7 +30256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>160</v>
       </c>
@@ -30180,7 +30276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -30200,7 +30296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -30220,7 +30316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -30240,7 +30336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -30260,7 +30356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -30280,7 +30376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -30972,7 +31068,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I21"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30991,10 +31087,10 @@
         <v>45</v>
       </c>
       <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>48</v>
@@ -31009,12 +31105,12 @@
         <v>94</v>
       </c>
       <c r="I1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B2">
         <v>1.0009999999999999</v>
@@ -31043,7 +31139,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B3">
         <v>1.0009999999999999</v>
@@ -31072,7 +31168,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B4">
         <v>1.0009999999999999</v>
@@ -31101,7 +31197,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B5">
         <v>1.0009999999999999</v>
@@ -31130,7 +31226,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B6">
         <v>1.0009999999999999</v>
@@ -31159,7 +31255,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B7">
         <v>1.0009999999999999</v>
@@ -31188,7 +31284,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B8">
         <v>1.0009999999999999</v>
@@ -31217,7 +31313,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B9">
         <v>1.0009999999999999</v>
@@ -31246,7 +31342,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B10">
         <v>1.0009999999999999</v>
@@ -31275,7 +31371,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B11">
         <v>1.0009999999999999</v>
@@ -31304,7 +31400,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B12">
         <v>1.0009999999999999</v>
@@ -31333,7 +31429,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B13">
         <v>1.0009999999999999</v>
@@ -31362,7 +31458,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B14">
         <v>1.0009999999999999</v>
@@ -31391,7 +31487,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B15">
         <v>1.0009999999999999</v>
@@ -31420,7 +31516,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B16">
         <v>1.0009999999999999</v>
@@ -31449,7 +31545,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B17">
         <v>1.0009999999999999</v>
@@ -31478,7 +31574,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B18">
         <v>1.0009999999999999</v>
@@ -31507,7 +31603,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B19">
         <v>1.0009999999999999</v>
@@ -31536,7 +31632,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B20">
         <v>1.0009999999999999</v>
@@ -31565,7 +31661,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B21">
         <v>1.0009999999999999</v>
@@ -31618,12 +31714,12 @@
         <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -31631,7 +31727,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -31639,7 +31735,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -31647,7 +31743,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B5">
         <v>4.5</v>
@@ -31655,7 +31751,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -31663,7 +31759,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B7">
         <v>8.5</v>
@@ -31671,7 +31767,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B8">
         <v>11</v>
@@ -31679,7 +31775,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -31687,7 +31783,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B10">
         <v>18</v>
@@ -31695,7 +31791,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B11">
         <v>22</v>
@@ -31703,7 +31799,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B12">
         <v>26</v>
@@ -31711,7 +31807,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -31719,7 +31815,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B14">
         <v>35</v>
@@ -31727,7 +31823,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B15">
         <v>0.5</v>
@@ -31735,7 +31831,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -31743,7 +31839,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -31751,7 +31847,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B18">
         <v>4.5</v>
@@ -31759,7 +31855,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -31767,7 +31863,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B20">
         <v>8.5</v>
@@ -31775,7 +31871,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B21">
         <v>11</v>
@@ -31783,7 +31879,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B22">
         <v>14</v>
@@ -31791,7 +31887,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B23">
         <v>18</v>
@@ -31799,7 +31895,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -31807,7 +31903,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B25">
         <v>26</v>
@@ -31815,7 +31911,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B26">
         <v>30</v>
@@ -31823,7 +31919,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B27">
         <v>35</v>
@@ -31831,7 +31927,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B28">
         <v>0.5</v>
@@ -31839,7 +31935,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -31847,7 +31943,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -31855,7 +31951,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B31">
         <v>4.5</v>
@@ -31863,7 +31959,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -31871,7 +31967,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B33">
         <v>8.5</v>
@@ -31879,7 +31975,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B34">
         <v>11</v>
@@ -31887,7 +31983,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B35">
         <v>14</v>
@@ -31895,7 +31991,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B36">
         <v>18</v>
@@ -31903,7 +31999,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B37">
         <v>22</v>
@@ -31911,7 +32007,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B38">
         <v>26</v>
@@ -31919,7 +32015,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B39">
         <v>30</v>
@@ -31927,7 +32023,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B40">
         <v>35</v>
@@ -31935,7 +32031,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B41">
         <v>0.5</v>
@@ -31943,7 +32039,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -31951,7 +32047,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -31959,7 +32055,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B44">
         <v>4.5</v>
@@ -31967,7 +32063,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -31975,7 +32071,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B46">
         <v>8.5</v>
@@ -31983,7 +32079,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B47">
         <v>11</v>
@@ -31991,7 +32087,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B48">
         <v>14</v>
@@ -31999,7 +32095,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B49">
         <v>18</v>
@@ -32007,7 +32103,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B50">
         <v>22</v>
@@ -32015,7 +32111,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B51">
         <v>26</v>
@@ -32023,7 +32119,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B52">
         <v>30</v>
@@ -32031,7 +32127,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B53">
         <v>35</v>
@@ -32039,7 +32135,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B54">
         <v>0.5</v>
@@ -32047,7 +32143,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -32055,7 +32151,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -32063,7 +32159,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B57">
         <v>4.5</v>
@@ -32071,7 +32167,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -32079,7 +32175,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B59">
         <v>8.5</v>
@@ -32087,7 +32183,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B60">
         <v>11</v>
@@ -32095,7 +32191,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B61">
         <v>14</v>
@@ -32103,7 +32199,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B62">
         <v>18</v>
@@ -32111,7 +32207,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B63">
         <v>22</v>
@@ -32119,7 +32215,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B64">
         <v>26</v>
@@ -32127,7 +32223,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B65">
         <v>30</v>
@@ -32135,7 +32231,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B66">
         <v>35</v>
@@ -32143,7 +32239,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B67">
         <v>0.5</v>
@@ -32151,7 +32247,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -32159,7 +32255,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -32167,7 +32263,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B70">
         <v>4.5</v>
@@ -32175,7 +32271,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -32183,7 +32279,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B72">
         <v>8.5</v>
@@ -32191,7 +32287,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B73">
         <v>11</v>
@@ -32199,7 +32295,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B74">
         <v>14</v>
@@ -32207,7 +32303,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B75">
         <v>18</v>
@@ -32215,7 +32311,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B76">
         <v>22</v>
@@ -32223,7 +32319,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B77">
         <v>26</v>
@@ -32231,7 +32327,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B78">
         <v>30</v>
@@ -32239,7 +32335,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B79">
         <v>35</v>
@@ -32247,7 +32343,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B80">
         <v>0.5</v>
@@ -32255,7 +32351,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -32263,7 +32359,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -32271,7 +32367,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B83">
         <v>4.5</v>
@@ -32279,7 +32375,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -32287,7 +32383,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B85">
         <v>8.5</v>
@@ -32295,7 +32391,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B86">
         <v>11</v>
@@ -32303,7 +32399,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B87">
         <v>14</v>
@@ -32311,7 +32407,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B88">
         <v>18</v>
@@ -32319,7 +32415,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B89">
         <v>22</v>
@@ -32327,7 +32423,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B90">
         <v>26</v>
@@ -32335,7 +32431,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B91">
         <v>30</v>
@@ -32343,7 +32439,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B92">
         <v>35</v>
@@ -32351,7 +32447,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B93">
         <v>0.5</v>
@@ -32359,7 +32455,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -32367,7 +32463,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -32375,7 +32471,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B96">
         <v>4.5</v>
@@ -32383,7 +32479,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B97">
         <v>6</v>
@@ -32391,7 +32487,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B98">
         <v>8.5</v>
@@ -32399,7 +32495,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B99">
         <v>11</v>
@@ -32407,7 +32503,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B100">
         <v>14</v>
@@ -32415,7 +32511,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B101">
         <v>18</v>
@@ -32423,7 +32519,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B102">
         <v>22</v>
@@ -32431,7 +32527,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B103">
         <v>26</v>
@@ -32439,7 +32535,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B104">
         <v>30</v>
@@ -32447,7 +32543,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B105">
         <v>35</v>
@@ -32455,7 +32551,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B106">
         <v>0.5</v>
@@ -32463,7 +32559,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -32471,7 +32567,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -32479,7 +32575,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B109">
         <v>4.5</v>
@@ -32487,7 +32583,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B110">
         <v>6</v>
@@ -32495,7 +32591,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B111">
         <v>8.5</v>
@@ -32503,7 +32599,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B112">
         <v>11</v>
@@ -32511,7 +32607,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B113">
         <v>14</v>
@@ -32519,7 +32615,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B114">
         <v>18</v>
@@ -32527,7 +32623,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B115">
         <v>22</v>
@@ -32535,7 +32631,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B116">
         <v>26</v>
@@ -32543,7 +32639,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B117">
         <v>30</v>
@@ -32551,7 +32647,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B118">
         <v>35</v>
@@ -32559,7 +32655,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B119">
         <v>0.5</v>
@@ -32567,7 +32663,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -32575,7 +32671,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -32583,7 +32679,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B122">
         <v>4.5</v>
@@ -32591,7 +32687,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B123">
         <v>6</v>
@@ -32599,7 +32695,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B124">
         <v>8.5</v>
@@ -32607,7 +32703,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B125">
         <v>11</v>
@@ -32615,7 +32711,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B126">
         <v>14</v>
@@ -32623,7 +32719,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B127">
         <v>18</v>
@@ -32631,7 +32727,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B128">
         <v>22</v>
@@ -32639,7 +32735,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B129">
         <v>26</v>
@@ -32647,7 +32743,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B130">
         <v>30</v>
@@ -32655,7 +32751,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B131">
         <v>35</v>
@@ -32663,7 +32759,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B132">
         <v>0.5</v>
@@ -32671,7 +32767,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -32679,7 +32775,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -32687,7 +32783,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B135">
         <v>4.5</v>
@@ -32695,7 +32791,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B136">
         <v>6</v>
@@ -32703,7 +32799,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B137">
         <v>8.5</v>
@@ -32711,7 +32807,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B138">
         <v>11</v>
@@ -32719,7 +32815,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B139">
         <v>14</v>
@@ -32727,7 +32823,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B140">
         <v>18</v>
@@ -32735,7 +32831,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B141">
         <v>22</v>
@@ -32743,7 +32839,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B142">
         <v>26</v>
@@ -32751,7 +32847,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B143">
         <v>30</v>
@@ -32759,7 +32855,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B144">
         <v>35</v>
@@ -32767,7 +32863,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B145">
         <v>0.5</v>
@@ -32775,7 +32871,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B146">
         <v>2</v>
@@ -32783,7 +32879,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B147">
         <v>3</v>
@@ -32791,7 +32887,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B148">
         <v>4.5</v>
@@ -32799,7 +32895,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B149">
         <v>6</v>
@@ -32807,7 +32903,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B150">
         <v>8.5</v>
@@ -32815,7 +32911,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B151">
         <v>11</v>
@@ -32823,7 +32919,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B152">
         <v>14</v>
@@ -32831,7 +32927,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B153">
         <v>18</v>
@@ -32839,7 +32935,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B154">
         <v>22</v>
@@ -32847,7 +32943,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B155">
         <v>26</v>
@@ -32855,7 +32951,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B156">
         <v>30</v>
@@ -32863,7 +32959,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B157">
         <v>35</v>
@@ -32871,7 +32967,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B158">
         <v>0.5</v>
@@ -32879,7 +32975,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -32887,7 +32983,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B160">
         <v>3</v>
@@ -32895,7 +32991,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B161">
         <v>4.5</v>
@@ -32903,7 +32999,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B162">
         <v>6</v>
@@ -32911,7 +33007,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B163">
         <v>8.5</v>
@@ -32919,7 +33015,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B164">
         <v>11</v>
@@ -32927,7 +33023,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B165">
         <v>14</v>
@@ -32935,7 +33031,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B166">
         <v>18</v>
@@ -32943,7 +33039,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B167">
         <v>22</v>
@@ -32951,7 +33047,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B168">
         <v>26</v>
@@ -32959,7 +33055,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B169">
         <v>30</v>
@@ -32967,7 +33063,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B170">
         <v>35</v>
@@ -32975,7 +33071,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B171">
         <v>0.5</v>
@@ -32983,7 +33079,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B172">
         <v>2</v>
@@ -32991,7 +33087,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B173">
         <v>3</v>
@@ -32999,7 +33095,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B174">
         <v>4.5</v>
@@ -33007,7 +33103,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B175">
         <v>6</v>
@@ -33015,7 +33111,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B176">
         <v>8.5</v>
@@ -33023,7 +33119,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B177">
         <v>11</v>
@@ -33031,7 +33127,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B178">
         <v>14</v>
@@ -33039,7 +33135,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B179">
         <v>18</v>
@@ -33047,7 +33143,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B180">
         <v>22</v>
@@ -33055,7 +33151,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B181">
         <v>26</v>
@@ -33063,7 +33159,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B182">
         <v>30</v>
@@ -33071,7 +33167,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B183">
         <v>35</v>
@@ -33079,7 +33175,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B184">
         <v>0.5</v>
@@ -33087,7 +33183,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -33095,7 +33191,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B186">
         <v>3</v>
@@ -33103,7 +33199,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B187">
         <v>4.5</v>
@@ -33111,7 +33207,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B188">
         <v>6</v>
@@ -33119,7 +33215,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B189">
         <v>8.5</v>
@@ -33127,7 +33223,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B190">
         <v>11</v>
@@ -33135,7 +33231,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B191">
         <v>14</v>
@@ -33143,7 +33239,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B192">
         <v>18</v>
@@ -33151,7 +33247,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B193">
         <v>22</v>
@@ -33159,7 +33255,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B194">
         <v>26</v>
@@ -33167,7 +33263,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B195">
         <v>30</v>
@@ -33175,7 +33271,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B196">
         <v>35</v>
@@ -33183,7 +33279,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B197">
         <v>0.5</v>
@@ -33191,7 +33287,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B198">
         <v>2</v>
@@ -33199,7 +33295,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>3</v>
@@ -33207,7 +33303,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B200">
         <v>4.5</v>
@@ -33215,7 +33311,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B201">
         <v>6</v>
@@ -33223,7 +33319,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B202">
         <v>8.5</v>
@@ -33231,7 +33327,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B203">
         <v>11</v>
@@ -33239,7 +33335,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B204">
         <v>14</v>
@@ -33247,7 +33343,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B205">
         <v>18</v>
@@ -33255,7 +33351,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B206">
         <v>22</v>
@@ -33263,7 +33359,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B207">
         <v>26</v>
@@ -33271,7 +33367,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B208">
         <v>30</v>
@@ -33279,7 +33375,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B209">
         <v>35</v>
@@ -33287,7 +33383,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B210">
         <v>0.5</v>
@@ -33295,7 +33391,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -33303,7 +33399,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B212">
         <v>3</v>
@@ -33311,7 +33407,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B213">
         <v>4.5</v>
@@ -33319,7 +33415,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B214">
         <v>6</v>
@@ -33327,7 +33423,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B215">
         <v>8.5</v>
@@ -33335,7 +33431,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B216">
         <v>11</v>
@@ -33343,7 +33439,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B217">
         <v>14</v>
@@ -33351,7 +33447,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B218">
         <v>18</v>
@@ -33359,7 +33455,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B219">
         <v>22</v>
@@ -33367,7 +33463,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B220">
         <v>26</v>
@@ -33375,7 +33471,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B221">
         <v>30</v>
@@ -33383,7 +33479,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B222">
         <v>35</v>
@@ -33391,7 +33487,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B223">
         <v>0.5</v>
@@ -33399,7 +33495,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B224">
         <v>2</v>
@@ -33407,7 +33503,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B225">
         <v>3</v>
@@ -33415,7 +33511,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B226">
         <v>4.5</v>
@@ -33423,7 +33519,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B227">
         <v>6</v>
@@ -33431,7 +33527,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B228">
         <v>8.5</v>
@@ -33439,7 +33535,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B229">
         <v>11</v>
@@ -33447,7 +33543,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B230">
         <v>14</v>
@@ -33455,7 +33551,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B231">
         <v>18</v>
@@ -33463,7 +33559,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B232">
         <v>22</v>
@@ -33471,7 +33567,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B233">
         <v>26</v>
@@ -33479,7 +33575,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B234">
         <v>30</v>
@@ -33487,7 +33583,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B235">
         <v>35</v>
@@ -33495,7 +33591,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B236">
         <v>0.5</v>
@@ -33503,7 +33599,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B237">
         <v>2</v>
@@ -33511,7 +33607,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B238">
         <v>3</v>
@@ -33519,7 +33615,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B239">
         <v>4.5</v>
@@ -33527,7 +33623,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B240">
         <v>6</v>
@@ -33535,7 +33631,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B241">
         <v>8.5</v>
@@ -33543,7 +33639,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B242">
         <v>11</v>
@@ -33551,7 +33647,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B243">
         <v>14</v>
@@ -33559,7 +33655,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B244">
         <v>18</v>
@@ -33567,7 +33663,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B245">
         <v>22</v>
@@ -33575,7 +33671,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B246">
         <v>26</v>
@@ -33583,7 +33679,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B247">
         <v>30</v>
@@ -33591,7 +33687,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B248">
         <v>35</v>
@@ -33599,7 +33695,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B249">
         <v>0.5</v>
@@ -33607,7 +33703,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B250">
         <v>2</v>
@@ -33615,7 +33711,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B251">
         <v>3</v>
@@ -33623,7 +33719,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B252">
         <v>4.5</v>
@@ -33631,7 +33727,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B253">
         <v>6</v>
@@ -33639,7 +33735,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B254">
         <v>8.5</v>
@@ -33647,7 +33743,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B255">
         <v>11</v>
@@ -33655,7 +33751,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B256">
         <v>14</v>
@@ -33663,7 +33759,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B257">
         <v>18</v>
@@ -33671,7 +33767,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B258">
         <v>22</v>
@@ -33679,7 +33775,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B259">
         <v>26</v>
@@ -33687,7 +33783,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B260">
         <v>30</v>
@@ -33695,7 +33791,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B261">
         <v>35</v>
@@ -33723,7 +33819,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
         <v>155</v>
